--- a/medicine/Enfance/Simone_Elkeles/Simone_Elkeles.xlsx
+++ b/medicine/Enfance/Simone_Elkeles/Simone_Elkeles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simone Elkeles, née le 24 avril 1970 à Chicago en Illinois, est un écrivain américain, auteur de romans et de nouvelles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simone Elkeles, née le 24 avril 1970 à Chicago en Illinois, est un écrivain américain, auteur de romans et de nouvelles.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simone Elkeles est née à Chicago, en Illinois, le 24 avril 1970. Sa famille a déménagé à Glenview dans l'Illinois, puis à Deerfield, toujours dans l'Illinois. Elle fréquente l'université Purdue et obtient un baccalauréat ès sciences en psychologie. Elle obtient sa maîtrise ès sciences en relations industrielles de l'université de Chicago[2].
-Simone commence à écrire en l'an 2000 et en 2005, un éditeur édite son premier roman. Son premier éditeur a édité ses trois premiers livres. Kristin Nelson est son nouvel agent[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simone Elkeles est née à Chicago, en Illinois, le 24 avril 1970. Sa famille a déménagé à Glenview dans l'Illinois, puis à Deerfield, toujours dans l'Illinois. Elle fréquente l'université Purdue et obtient un baccalauréat ès sciences en psychologie. Elle obtient sa maîtrise ès sciences en relations industrielles de l'université de Chicago.
+Simone commence à écrire en l'an 2000 et en 2005, un éditeur édite son premier roman. Son premier éditeur a édité ses trois premiers livres. Kristin Nelson est son nouvel agent.
 </t>
         </is>
       </c>
@@ -545,20 +559,127 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série How to Ruin
-(en) How to Ruin a Summer Vacation, 2006
+          <t>Série How to Ruin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) How to Ruin a Summer Vacation, 2006
 (en) How to Ruin My Teenage Life, 2007
 (en) How to Ruin Your Boyfriend's Reputation, 2009
-(en) Ruined, 2010
-Série Paradise
-Paradise, La Martinière jeunesse, 2012 ((en) Leaving Paradise, 2007)
-Retour à Paradise, La Martinière jeunesse, 2013 ((en) Return to Paradise, 2010)
-Série Irrésistible
-Irrésistible Alchimie, La Martinière jeunesse, 2011 ((en) Perfect Chemistry, 2008)
+(en) Ruined, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Simone_Elkeles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simone_Elkeles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Paradise</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Paradise, La Martinière jeunesse, 2012 ((en) Leaving Paradise, 2007)
+Retour à Paradise, La Martinière jeunesse, 2013 ((en) Return to Paradise, 2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Simone_Elkeles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simone_Elkeles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Irrésistible</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Irrésistible Alchimie, La Martinière jeunesse, 2011 ((en) Perfect Chemistry, 2008)
 Irrésistible Attraction, La Martinière jeunesse, 2011 ((en) Rules of Attraction, 2010)
-Irrésistible Fusion, La Martinière jeunesse, 2012 ((en) Chain Reaction, 2011)
-Série Attirance
-Attirance et Confusion, La Martinière jeunesse, 2014 ((en) Wild Cards, 2013)
+Irrésistible Fusion, La Martinière jeunesse, 2012 ((en) Chain Reaction, 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Simone_Elkeles</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simone_Elkeles</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Attirance</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Attirance et Confusion, La Martinière jeunesse, 2014 ((en) Wild Cards, 2013)
 Attirance et Indécision, La Martinière jeunesse, 2015 ((en) Wild Crush, 2013)</t>
         </is>
       </c>
